--- a/Manuscript_items/Table_S2.xlsx
+++ b/Manuscript_items/Table_S2.xlsx
@@ -246,10 +246,10 @@
     <t>8.1 (5.9 - 11.0)</t>
   </si>
   <si>
-    <t>Supplemental Table 1. Age-adjusted incidence rates of type 2 diabetes per 1000 individuals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Info on calculation: To calculate the rate of new cases, the weighted number of respondents who were diagnosed with diabetes within the last year (numerator) was divided by the weighted estimate of US population aged 18 years and older (denominator). Adults who had been diagnosed with diabetes for more than one year and adults who answered "refused," "don't know," or had missing values on the diabetes status question were excluded from the denominator. Three-year averages were used to improve the precision of the annual estimates with the exception of the last year in the trend for which a two-year average was used. Rates were age-adjusted to the 2000 US standard population using age groups 18-44, 45-64, and 65-79 years. https://gis.cdc.gov/grasp/diabetes/DiabetesAtlas.html#  </t>
+  </si>
+  <si>
+    <t>Supplemental Table 2. Age-adjusted incidence rates of type 2 diabetes per 1000 individuals</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1077,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="22" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
